--- a/examples/EMTF_vu13p_r1/src/protocol_OTMB48.xlsx
+++ b/examples/EMTF_vu13p_r1/src/protocol_OTMB48.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="otmb48_mgt_atts" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1142">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -313,19 +313,19 @@
     <t xml:space="preserve">CPLL_CFG0</t>
   </si>
   <si>
-    <t xml:space="preserve">16'h0FFA</t>
+    <t xml:space="preserve">16'h01FA</t>
   </si>
   <si>
     <t xml:space="preserve">CPLL_CFG1</t>
   </si>
   <si>
-    <t xml:space="preserve">16'h0029</t>
+    <t xml:space="preserve">16'h002B</t>
   </si>
   <si>
     <t xml:space="preserve">CPLL_CFG2</t>
   </si>
   <si>
-    <t xml:space="preserve">16'h0202</t>
+    <t xml:space="preserve">16'h0002</t>
   </si>
   <si>
     <t xml:space="preserve">CPLL_CFG3</t>
@@ -334,261 +334,267 @@
     <t xml:space="preserve">CPLL_FBDIV</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPLL_FBDIV_45</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">CPLL_FBDIV_45</t>
+    <t xml:space="preserve">CPLL_INIT_CFG0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16'h02B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPLL_LOCK_CFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16'h01E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPLL_REFCLK_DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTLE3_OCAP_EXT_CTRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3'b000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTLE3_OCAP_EXT_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDI_CTRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2'b00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDI_REALIGN_WAIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC_MCOMMA_DETECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC_PCOMMA_DETECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC_VALID_COMMA_ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELAY_ELEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMONITOR_CFG0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10'h000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMONITOR_CFG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8'h00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_CLK_PHASE_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_CONTROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6'b000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_ERRDET_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_EYE_SCAN_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_HORZ_OFFSET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12'h000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_PRESCALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5'b00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUALIFIER9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_QUAL_MASK9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES_SDATA_MASK9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYESCAN_VP_RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYE_SCAN_SWAP_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTS_DESKEW_SEQ_ENABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTS_LANE_DESKEW_CFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTS_LANE_DESKEW_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEARBOX_MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISCAN_CK_PH_SEL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_BEL_FIXED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_BLACKBOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_BOUNDARY_INST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_DEBUGGABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_LOC_FIXED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_MATCHED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_ORIG_CELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_PRIMITIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_REUSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_SEQUENTIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINE_NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTYE4_CHANNEL_X0Y0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL_MASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPBK_BIAS_CTRL</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">CPLL_INIT_CFG0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16'h02B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPLL_LOCK_CFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16'h01E8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPLL_REFCLK_DIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTLE3_OCAP_EXT_CTRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3'b000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTLE3_OCAP_EXT_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDI_CTRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2'b00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDI_REALIGN_WAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC_MCOMMA_DETECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC_PCOMMA_DETECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC_VALID_COMMA_ONLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELAY_ELEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMONITOR_CFG0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10'h000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMONITOR_CFG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8'h00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_CLK_PHASE_SEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_CONTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6'b000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_ERRDET_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_EYE_SCAN_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_HORZ_OFFSET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12'h000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_PRESCALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5'b00000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUALIFIER9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_QUAL_MASK9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES_SDATA_MASK9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EYESCAN_VP_RANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EYE_SCAN_SWAP_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTS_DESKEW_SEQ_ENABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTS_LANE_DESKEW_CFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTS_LANE_DESKEW_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEARBOX_MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISCAN_CK_PH_SEL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_BEL_FIXED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_BLACKBOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_BOUNDARY_INST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_DEBUGGABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_LOC_FIXED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_MATCHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_ORIG_CELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_PRIMITIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_REUSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS_SEQUENTIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINE_NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTYE4_CHANNEL_X0Y0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL_MASTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPBK_BIAS_CTRL</t>
-  </si>
-  <si>
     <t xml:space="preserve">LPBK_EN_RCAL_B</t>
   </si>
   <si>
@@ -610,9 +616,6 @@
     <t xml:space="preserve">LPBK_RG_CTRL</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">OOBDIVCTL</t>
   </si>
   <si>
@@ -862,22 +865,22 @@
     <t xml:space="preserve">RXCDR_CFG0</t>
   </si>
   <si>
+    <t xml:space="preserve">RXCDR_CFG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RXCDR_CFG1_GEN3</t>
   </si>
   <si>
-    <t xml:space="preserve">RXCDR_CFG1</t>
+    <t xml:space="preserve">RXCDR_CFG2_GEN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10'h269</t>
   </si>
   <si>
     <t xml:space="preserve">RXCDR_CFG2</t>
   </si>
   <si>
-    <t xml:space="preserve">16'h0259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RXCDR_CFG2_GEN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10'h259</t>
+    <t xml:space="preserve">16'h0269</t>
   </si>
   <si>
     <t xml:space="preserve">RXCDR_CFG2_GEN3</t>
@@ -901,21 +904,21 @@
     <t xml:space="preserve">16'h0012</t>
   </si>
   <si>
+    <t xml:space="preserve">RXCDR_CFG3_GEN4</t>
+  </si>
+  <si>
     <t xml:space="preserve">RXCDR_CFG3</t>
   </si>
   <si>
-    <t xml:space="preserve">RXCDR_CFG3_GEN4</t>
+    <t xml:space="preserve">RXCDR_CFG4_GEN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16'h5CF6</t>
   </si>
   <si>
     <t xml:space="preserve">RXCDR_CFG4</t>
   </si>
   <si>
-    <t xml:space="preserve">16'h5CF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RXCDR_CFG4_GEN3</t>
-  </si>
-  <si>
     <t xml:space="preserve">RXCDR_CFG5</t>
   </si>
   <si>
@@ -1045,9 +1048,6 @@
     <t xml:space="preserve">RXDFE_H2_CFG1</t>
   </si>
   <si>
-    <t xml:space="preserve">16'h0002</t>
-  </si>
-  <si>
     <t xml:space="preserve">RXDFE_H3_CFG0</t>
   </si>
   <si>
@@ -1339,6 +1339,9 @@
     <t xml:space="preserve">RX_CLK25_DIV</t>
   </si>
   <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">RX_CLKMUX_EN</t>
   </si>
   <si>
@@ -1357,9 +1360,6 @@
     <t xml:space="preserve">RX_CM_SEL</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">RX_CM_TRIM</t>
   </si>
   <si>
@@ -1705,15 +1705,15 @@
     <t xml:space="preserve">16'h000F</t>
   </si>
   <si>
+    <t xml:space="preserve">TXPH_CFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16'h0323</t>
+  </si>
+  <si>
     <t xml:space="preserve">TXPH_CFG2</t>
   </si>
   <si>
-    <t xml:space="preserve">TXPH_CFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16'h0723</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXPH_MONITOR_SEL</t>
   </si>
   <si>
@@ -2122,12 +2122,6 @@
     <t xml:space="preserve">CPLLLOCKEN</t>
   </si>
   <si>
-    <t xml:space="preserve">CPLLPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1’b1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPLLREFCLKSEL</t>
   </si>
   <si>
@@ -2468,9 +2462,6 @@
   </si>
   <si>
     <t xml:space="preserve">RXOUTCLKSEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXOUTCLKSEL</t>
   </si>
   <si>
     <t xml:space="preserve">RXPCOMMAALIGNEN</t>
@@ -3591,16 +3582,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D719"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="35.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
@@ -4365,24 +4356,24 @@
         <v>110</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>6</v>
@@ -4392,27 +4383,27 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>15</v>
@@ -4422,7 +4413,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>15</v>
@@ -4432,7 +4423,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>15</v>
@@ -4442,7 +4433,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>6</v>
@@ -4452,27 +4443,27 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>6</v>
@@ -4482,17 +4473,17 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>15</v>
@@ -4502,7 +4493,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>15</v>
@@ -4512,27 +4503,27 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>10</v>
@@ -4542,7 +4533,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>10</v>
@@ -4552,7 +4543,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>10</v>
@@ -4562,7 +4553,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>10</v>
@@ -4572,7 +4563,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>10</v>
@@ -4582,7 +4573,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>10</v>
@@ -4592,7 +4583,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>10</v>
@@ -4602,7 +4593,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>10</v>
@@ -4612,7 +4603,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>10</v>
@@ -4622,7 +4613,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>10</v>
@@ -4632,7 +4623,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>10</v>
@@ -4642,7 +4633,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>10</v>
@@ -4652,7 +4643,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>10</v>
@@ -4662,7 +4653,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>10</v>
@@ -4672,7 +4663,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
@@ -4682,7 +4673,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>10</v>
@@ -4692,7 +4683,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>10</v>
@@ -4702,7 +4693,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>10</v>
@@ -4712,7 +4703,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
@@ -4722,7 +4713,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>10</v>
@@ -4732,7 +4723,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>10</v>
@@ -4742,7 +4733,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>10</v>
@@ -4752,7 +4743,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>10</v>
@@ -4762,7 +4753,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>10</v>
@@ -4772,7 +4763,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>10</v>
@@ -4782,7 +4773,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>10</v>
@@ -4792,7 +4783,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>10</v>
@@ -4802,7 +4793,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>10</v>
@@ -4812,7 +4803,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>10</v>
@@ -4822,7 +4813,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>10</v>
@@ -4832,7 +4823,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>82</v>
@@ -4842,7 +4833,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>6</v>
@@ -4852,7 +4843,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>46</v>
@@ -4862,7 +4853,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>46</v>
@@ -4872,7 +4863,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>15</v>
@@ -4882,17 +4873,17 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>6</v>
@@ -4902,7 +4893,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>82</v>
@@ -4912,7 +4903,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>82</v>
@@ -4922,7 +4913,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>82</v>
@@ -4932,7 +4923,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>19</v>
@@ -4942,7 +4933,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>19</v>
@@ -4952,7 +4943,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>19</v>
@@ -4962,7 +4953,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>19</v>
@@ -4972,7 +4963,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>19</v>
@@ -4982,7 +4973,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>82</v>
@@ -4992,7 +4983,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>19</v>
@@ -5002,27 +4993,27 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>29</v>
@@ -5032,17 +5023,17 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>6</v>
@@ -5052,67 +5043,67 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>6</v>
@@ -5122,27 +5113,27 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>6</v>
@@ -5152,17 +5143,17 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>6</v>
@@ -5172,37 +5163,37 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>6</v>
@@ -5212,7 +5203,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>6</v>
@@ -5222,57 +5213,57 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>15</v>
@@ -5282,17 +5273,17 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>15</v>
@@ -5302,77 +5293,77 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>15</v>
@@ -5382,7 +5373,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>10</v>
@@ -5392,37 +5383,37 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>82</v>
@@ -5432,7 +5423,7 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>19</v>
@@ -5442,37 +5433,37 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>29</v>
@@ -5482,7 +5473,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>6</v>
@@ -5492,7 +5483,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>6</v>
@@ -5502,77 +5493,77 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>15</v>
@@ -5582,7 +5573,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>80</v>
@@ -5592,7 +5583,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>15</v>
@@ -5602,7 +5593,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>15</v>
@@ -5612,7 +5603,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>80</v>
@@ -5622,7 +5613,7 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>82</v>
@@ -5632,7 +5623,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>15</v>
@@ -5642,57 +5633,57 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>10</v>
@@ -5702,7 +5693,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>10</v>
@@ -5712,127 +5703,127 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>6</v>
@@ -5842,7 +5833,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>6</v>
@@ -5852,27 +5843,27 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>10</v>
@@ -5882,7 +5873,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>10</v>
@@ -5892,7 +5883,7 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>10</v>
@@ -5902,7 +5893,7 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>6</v>
@@ -5912,7 +5903,7 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>10</v>
@@ -5922,27 +5913,27 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>10</v>
@@ -5952,7 +5943,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>10</v>
@@ -5962,7 +5953,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>10</v>
@@ -5972,7 +5963,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>10</v>
@@ -5982,7 +5973,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>10</v>
@@ -5992,7 +5983,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>10</v>
@@ -6002,7 +5993,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>10</v>
@@ -6012,17 +6003,17 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>10</v>
@@ -6032,37 +6023,37 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>10</v>
@@ -6072,7 +6063,7 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>10</v>
@@ -6082,27 +6073,27 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>10</v>
@@ -6112,10 +6103,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -6385,7 +6376,7 @@
         <v>368</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -6435,7 +6426,7 @@
         <v>377</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -6455,7 +6446,7 @@
         <v>379</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -6525,7 +6516,7 @@
         <v>390</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -6545,7 +6536,7 @@
         <v>392</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -6635,7 +6626,7 @@
         <v>405</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -6645,7 +6636,7 @@
         <v>406</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -6655,7 +6646,7 @@
         <v>407</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -6705,7 +6696,7 @@
         <v>415</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -6745,7 +6736,7 @@
         <v>422</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -6765,7 +6756,7 @@
         <v>424</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -6855,7 +6846,7 @@
         <v>435</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -6875,14 +6866,14 @@
         <v>437</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>29</v>
@@ -6892,27 +6883,27 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>6</v>
@@ -6922,10 +6913,10 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -6955,7 +6946,7 @@
         <v>448</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -6975,7 +6966,7 @@
         <v>451</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -7035,7 +7026,7 @@
         <v>458</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -7045,7 +7036,7 @@
         <v>459</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -7055,7 +7046,7 @@
         <v>460</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -7075,7 +7066,7 @@
         <v>463</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -7105,7 +7096,7 @@
         <v>466</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -7235,7 +7226,7 @@
         <v>483</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -7295,7 +7286,7 @@
         <v>491</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -7315,7 +7306,7 @@
         <v>493</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -7395,7 +7386,7 @@
         <v>503</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -7405,7 +7396,7 @@
         <v>504</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -7525,7 +7516,7 @@
         <v>520</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -7595,7 +7586,7 @@
         <v>529</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -7635,7 +7626,7 @@
         <v>536</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -7645,7 +7636,7 @@
         <v>537</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -7755,7 +7746,7 @@
         <v>552</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -7775,7 +7766,7 @@
         <v>554</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -7785,7 +7776,7 @@
         <v>555</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -7815,17 +7806,17 @@
         <v>560</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>10</v>
+        <v>561</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>562</v>
+        <v>10</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -7835,7 +7826,7 @@
         <v>563</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -7915,7 +7906,7 @@
         <v>574</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -7955,7 +7946,7 @@
         <v>578</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -7995,7 +7986,7 @@
         <v>582</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -8035,7 +8026,7 @@
         <v>587</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -8045,7 +8036,7 @@
         <v>588</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -8055,7 +8046,7 @@
         <v>589</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -8065,7 +8056,7 @@
         <v>590</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -8075,7 +8066,7 @@
         <v>591</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -8105,7 +8096,7 @@
         <v>595</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -8375,7 +8366,7 @@
         <v>636</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -8395,7 +8386,7 @@
         <v>638</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -8405,7 +8396,7 @@
         <v>639</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -8645,7 +8636,7 @@
         <v>678</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -8695,7 +8686,7 @@
         <v>683</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -8835,24 +8826,24 @@
         <v>699</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B526" s="4" t="s">
         <v>6</v>
@@ -8862,7 +8853,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B527" s="4" t="s">
         <v>6</v>
@@ -8872,7 +8863,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B528" s="4" t="s">
         <v>6</v>
@@ -8882,7 +8873,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B529" s="4" t="s">
         <v>6</v>
@@ -8892,7 +8883,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B530" s="4" t="s">
         <v>6</v>
@@ -8902,7 +8893,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B531" s="4" t="s">
         <v>6</v>
@@ -8912,7 +8903,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B532" s="4" t="s">
         <v>6</v>
@@ -8922,7 +8913,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B533" s="4" t="s">
         <v>6</v>
@@ -8932,7 +8923,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B534" s="4" t="s">
         <v>6</v>
@@ -8942,27 +8933,27 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B537" s="4" t="s">
         <v>6</v>
@@ -8972,7 +8963,7 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>6</v>
@@ -8982,7 +8973,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>6</v>
@@ -8992,7 +8983,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B540" s="4" t="s">
         <v>6</v>
@@ -9002,27 +8993,27 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B543" s="4" t="s">
         <v>6</v>
@@ -9032,7 +9023,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B544" s="4" t="s">
         <v>6</v>
@@ -9042,7 +9033,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B545" s="4" t="s">
         <v>6</v>
@@ -9052,27 +9043,27 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B548" s="4" t="s">
         <v>6</v>
@@ -9082,7 +9073,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>6</v>
@@ -9092,7 +9083,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B550" s="4" t="s">
         <v>6</v>
@@ -9102,7 +9093,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B551" s="4" t="s">
         <v>6</v>
@@ -9112,7 +9103,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B552" s="4" t="s">
         <v>6</v>
@@ -9122,7 +9113,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B553" s="4" t="s">
         <v>6</v>
@@ -9132,7 +9123,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B554" s="4" t="s">
         <v>6</v>
@@ -9142,27 +9133,27 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B557" s="4" t="s">
         <v>6</v>
@@ -9172,7 +9163,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B558" s="4" t="s">
         <v>6</v>
@@ -9182,7 +9173,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B559" s="4" t="s">
         <v>6</v>
@@ -9192,7 +9183,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B560" s="4" t="s">
         <v>6</v>
@@ -9202,7 +9193,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B561" s="4" t="s">
         <v>6</v>
@@ -9212,37 +9203,37 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>6</v>
@@ -9252,7 +9243,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B566" s="4" t="s">
         <v>6</v>
@@ -9262,37 +9253,37 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>470</v>
+        <v>29</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>6</v>
@@ -9302,10 +9293,10 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B571" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="B571" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -9315,14 +9306,14 @@
         <v>748</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>749</v>
+        <v>6</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B573" s="4" t="s">
         <v>6</v>
@@ -9332,7 +9323,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B574" s="4" t="s">
         <v>6</v>
@@ -9342,7 +9333,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B575" s="4" t="s">
         <v>6</v>
@@ -9352,7 +9343,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B576" s="4" t="s">
         <v>6</v>
@@ -9362,7 +9353,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B577" s="4" t="s">
         <v>6</v>
@@ -9372,7 +9363,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>6</v>
@@ -9382,7 +9373,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>6</v>
@@ -9392,7 +9383,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B580" s="4" t="s">
         <v>6</v>
@@ -9402,7 +9393,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>6</v>
@@ -9412,7 +9403,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B582" s="4" t="s">
         <v>6</v>
@@ -9422,7 +9413,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B583" s="4" t="s">
         <v>6</v>
@@ -9432,7 +9423,7 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>6</v>
@@ -9442,7 +9433,7 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>6</v>
@@ -9452,7 +9443,7 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>6</v>
@@ -9462,7 +9453,7 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>6</v>
@@ -9472,7 +9463,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>6</v>
@@ -9482,7 +9473,7 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B589" s="4" t="s">
         <v>6</v>
@@ -9492,7 +9483,7 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B590" s="4" t="s">
         <v>6</v>
@@ -9502,7 +9493,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B591" s="4" t="s">
         <v>6</v>
@@ -9512,7 +9503,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B592" s="4" t="s">
         <v>6</v>
@@ -9522,7 +9513,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B593" s="4" t="s">
         <v>6</v>
@@ -9532,7 +9523,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B594" s="4" t="s">
         <v>6</v>
@@ -9542,7 +9533,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B595" s="4" t="s">
         <v>6</v>
@@ -9552,7 +9543,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B596" s="4" t="s">
         <v>6</v>
@@ -9562,7 +9553,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B597" s="4" t="s">
         <v>6</v>
@@ -9572,7 +9563,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B598" s="4" t="s">
         <v>6</v>
@@ -9582,7 +9573,7 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B599" s="4" t="s">
         <v>6</v>
@@ -9592,7 +9583,7 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>6</v>
@@ -9602,7 +9593,7 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B601" s="4" t="s">
         <v>6</v>
@@ -9612,7 +9603,7 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>6</v>
@@ -9622,7 +9613,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B603" s="4" t="s">
         <v>6</v>
@@ -9632,7 +9623,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B604" s="4" t="s">
         <v>6</v>
@@ -9642,7 +9633,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B605" s="4" t="s">
         <v>6</v>
@@ -9652,7 +9643,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B606" s="4" t="s">
         <v>6</v>
@@ -9662,7 +9653,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B607" s="4" t="s">
         <v>6</v>
@@ -9672,7 +9663,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B608" s="4" t="s">
         <v>6</v>
@@ -9682,7 +9673,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B609" s="4" t="s">
         <v>6</v>
@@ -9692,7 +9683,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B610" s="4" t="s">
         <v>6</v>
@@ -9702,7 +9693,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B611" s="4" t="s">
         <v>6</v>
@@ -9712,7 +9703,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B612" s="4" t="s">
         <v>6</v>
@@ -9722,27 +9713,27 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B615" s="4" t="s">
         <v>6</v>
@@ -9752,7 +9743,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B616" s="4" t="s">
         <v>6</v>
@@ -9762,27 +9753,27 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B619" s="4" t="s">
         <v>6</v>
@@ -9792,7 +9783,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B620" s="4" t="s">
         <v>6</v>
@@ -9802,27 +9793,27 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B623" s="4" t="s">
         <v>6</v>
@@ -9832,7 +9823,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B624" s="4" t="s">
         <v>6</v>
@@ -9842,7 +9833,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B625" s="4" t="s">
         <v>6</v>
@@ -9852,7 +9843,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B626" s="4" t="s">
         <v>6</v>
@@ -9862,7 +9853,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B627" s="4" t="s">
         <v>6</v>
@@ -9872,7 +9863,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B628" s="4" t="s">
         <v>6</v>
@@ -9882,7 +9873,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B629" s="4" t="s">
         <v>6</v>
@@ -9892,7 +9883,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B630" s="4" t="s">
         <v>6</v>
@@ -9902,27 +9893,27 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B633" s="4" t="s">
         <v>6</v>
@@ -9932,7 +9923,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B634" s="4" t="s">
         <v>6</v>
@@ -9942,7 +9933,7 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>6</v>
@@ -9952,47 +9943,47 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>6</v>
+        <v>501</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B640" s="4" t="s">
         <v>6</v>
@@ -10002,17 +9993,17 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>6</v>
@@ -10022,7 +10013,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B643" s="4" t="s">
         <v>6</v>
@@ -10032,17 +10023,17 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B645" s="4" t="s">
         <v>6</v>
@@ -10052,17 +10043,17 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B647" s="4" t="s">
         <v>6</v>
@@ -10072,17 +10063,17 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B649" s="4" t="s">
         <v>6</v>
@@ -10092,17 +10083,17 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B651" s="4" t="s">
         <v>6</v>
@@ -10112,17 +10103,17 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B653" s="4" t="s">
         <v>6</v>
@@ -10132,7 +10123,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B654" s="4" t="s">
         <v>6</v>
@@ -10142,50 +10133,50 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B659" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="B659" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -10195,7 +10186,7 @@
         <v>837</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -10205,24 +10196,24 @@
         <v>838</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>839</v>
+        <v>6</v>
       </c>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>572</v>
+        <v>6</v>
       </c>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B663" s="4" t="s">
         <v>6</v>
@@ -10232,7 +10223,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B664" s="4" t="s">
         <v>6</v>
@@ -10242,57 +10233,57 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>572</v>
+        <v>6</v>
       </c>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>572</v>
+        <v>6</v>
       </c>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B670" s="4" t="s">
         <v>6</v>
@@ -10302,10 +10293,10 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B671" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="B671" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -10315,7 +10306,7 @@
         <v>850</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -10325,24 +10316,24 @@
         <v>851</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>852</v>
+        <v>6</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B675" s="4" t="s">
         <v>6</v>
@@ -10352,7 +10343,7 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>6</v>
@@ -10362,7 +10353,7 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B677" s="4" t="s">
         <v>6</v>
@@ -10372,7 +10363,7 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B678" s="4" t="s">
         <v>6</v>
@@ -10382,17 +10373,17 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B680" s="4" t="s">
         <v>6</v>
@@ -10402,17 +10393,17 @@
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B682" s="4" t="s">
         <v>6</v>
@@ -10422,7 +10413,7 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B683" s="4" t="s">
         <v>6</v>
@@ -10432,7 +10423,7 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>6</v>
@@ -10442,10 +10433,10 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B685" s="4" t="s">
         <v>864</v>
-      </c>
-      <c r="B685" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -10455,7 +10446,7 @@
         <v>865</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -10465,24 +10456,24 @@
         <v>866</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>867</v>
+        <v>6</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B689" s="4" t="s">
         <v>6</v>
@@ -10492,7 +10483,7 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B690" s="4" t="s">
         <v>6</v>
@@ -10502,7 +10493,7 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B691" s="4" t="s">
         <v>6</v>
@@ -10512,17 +10503,17 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B693" s="4" t="s">
         <v>6</v>
@@ -10532,27 +10523,27 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B696" s="4" t="s">
         <v>6</v>
@@ -10562,17 +10553,17 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>6</v>
@@ -10582,7 +10573,7 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>6</v>
@@ -10592,7 +10583,7 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B700" s="4" t="s">
         <v>6</v>
@@ -10602,7 +10593,7 @@
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B701" s="4" t="s">
         <v>6</v>
@@ -10612,7 +10603,7 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B702" s="4" t="s">
         <v>6</v>
@@ -10622,67 +10613,67 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B709" s="4" t="s">
         <v>6</v>
@@ -10692,57 +10683,57 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>470</v>
+        <v>6</v>
       </c>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B715" s="4" t="s">
         <v>6</v>
@@ -10752,7 +10743,7 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B716" s="2" t="s">
         <v>6</v>
@@ -10760,28 +10751,14 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B718" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="B719" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -10827,7 +10804,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -10842,7 +10819,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -10852,7 +10829,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
@@ -10862,7 +10839,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -10872,7 +10849,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -10882,7 +10859,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -10892,17 +10869,17 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>63</v>
@@ -10912,7 +10889,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -10922,7 +10899,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -10932,7 +10909,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -10942,27 +10919,27 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>385</v>
@@ -10972,7 +10949,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -11002,7 +10979,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -11012,7 +10989,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -11022,7 +10999,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>0</v>
@@ -11032,7 +11009,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>0</v>
@@ -11042,7 +11019,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>1</v>
@@ -11052,7 +11029,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>1</v>
@@ -11062,7 +11039,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>1</v>
@@ -11072,7 +11049,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>1</v>
@@ -11082,7 +11059,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>0</v>
@@ -11092,7 +11069,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>1</v>
@@ -11102,7 +11079,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>959</v>
@@ -11112,17 +11089,17 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -11132,27 +11109,27 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>1</v>
@@ -11162,137 +11139,137 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C38" s="0"/>
       <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>82</v>
@@ -11302,7 +11279,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>160</v>
@@ -11312,7 +11289,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>107</v>
@@ -11322,57 +11299,57 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="0"/>
       <c r="D52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C54" s="0"/>
       <c r="D54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C55" s="0"/>
       <c r="D55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C56" s="0"/>
       <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>6</v>
@@ -11382,7 +11359,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>29</v>
@@ -11392,7 +11369,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>1</v>
@@ -11402,7 +11379,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
@@ -11412,7 +11389,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>10</v>
@@ -11422,7 +11399,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>10</v>
@@ -11432,107 +11409,107 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C64" s="0"/>
       <c r="D64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="C70" s="0"/>
       <c r="D70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>66</v>
@@ -11542,7 +11519,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>80</v>
@@ -11552,7 +11529,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>107</v>
@@ -11562,57 +11539,57 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C76" s="0"/>
       <c r="D76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C77" s="0"/>
       <c r="D77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C78" s="0"/>
       <c r="D78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C79" s="0"/>
       <c r="D79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C80" s="0"/>
       <c r="D80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>6</v>
@@ -11622,7 +11599,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>29</v>
@@ -11632,7 +11609,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1</v>
@@ -11642,17 +11619,17 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C84" s="0"/>
       <c r="D84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>10</v>
@@ -11662,7 +11639,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
@@ -11672,17 +11649,17 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>10</v>
@@ -11692,7 +11669,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>10</v>
@@ -11702,7 +11679,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>10</v>
@@ -11712,7 +11689,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>10</v>
@@ -11722,27 +11699,27 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" s="0"/>
       <c r="D92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C93" s="0"/>
       <c r="D93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>6</v>
@@ -11752,7 +11729,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
@@ -11762,40 +11739,40 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C96" s="0"/>
       <c r="D96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C97" s="0"/>
       <c r="D97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C98" s="0"/>
       <c r="D98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C99" s="0"/>
       <c r="D99" s="0"/>
@@ -11815,7 +11792,7 @@
         <v>520</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C101" s="0"/>
       <c r="D101" s="0"/>
@@ -11835,14 +11812,14 @@
         <v>527</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C103" s="0"/>
       <c r="D103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>10</v>
@@ -11852,7 +11829,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>10</v>
@@ -11862,7 +11839,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>10</v>
@@ -11872,7 +11849,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>10</v>
@@ -11882,7 +11859,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
@@ -11892,17 +11869,17 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C109" s="0"/>
       <c r="D109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>10</v>
@@ -11912,7 +11889,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>29</v>
@@ -11922,7 +11899,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>29</v>
@@ -11932,7 +11909,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>29</v>
@@ -11942,7 +11919,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>29</v>
@@ -11952,17 +11929,17 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C115" s="0"/>
       <c r="D115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>63</v>
@@ -11972,7 +11949,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>6</v>
@@ -11982,7 +11959,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>63</v>
@@ -11992,7 +11969,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>6</v>
@@ -12002,7 +11979,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>6</v>
@@ -12012,7 +11989,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>6</v>
@@ -12022,7 +11999,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>6</v>
@@ -12032,7 +12009,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>6</v>
@@ -12042,7 +12019,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>6</v>
@@ -12052,7 +12029,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>6</v>
@@ -12062,7 +12039,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>6</v>
@@ -12072,7 +12049,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>6</v>
@@ -12082,7 +12059,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>6</v>
@@ -12092,7 +12069,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>6</v>
@@ -12102,7 +12079,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>6</v>
@@ -12112,7 +12089,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>6</v>
@@ -12122,7 +12099,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>6</v>
@@ -12132,7 +12109,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>6</v>
@@ -12142,27 +12119,27 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C134" s="0"/>
       <c r="D134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C135" s="0"/>
       <c r="D135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>572</v>
@@ -12172,7 +12149,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>572</v>
@@ -12182,7 +12159,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>6</v>
@@ -12192,7 +12169,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>6</v>
@@ -12202,7 +12179,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>572</v>
@@ -12212,7 +12189,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>6</v>
@@ -12222,7 +12199,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>29</v>
@@ -12232,7 +12209,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>29</v>
@@ -12242,7 +12219,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>533</v>
@@ -12252,7 +12229,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>6</v>
@@ -12262,7 +12239,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>6</v>
@@ -12272,7 +12249,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>572</v>
@@ -12282,7 +12259,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>6</v>
@@ -12292,7 +12269,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>6</v>
@@ -12302,7 +12279,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>29</v>
@@ -12312,7 +12289,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>533</v>
@@ -12322,7 +12299,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>29</v>
@@ -12332,7 +12309,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>572</v>
@@ -12342,27 +12319,27 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C154" s="0"/>
       <c r="D154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C155" s="0"/>
       <c r="D155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>572</v>
@@ -12372,7 +12349,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>29</v>
@@ -12382,17 +12359,17 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>6</v>
@@ -12402,7 +12379,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>6</v>
@@ -12412,27 +12389,27 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C161" s="0"/>
       <c r="D161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>6</v>
@@ -12442,7 +12419,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>6</v>
@@ -12452,17 +12429,17 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C165" s="0"/>
       <c r="D165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>6</v>
@@ -12472,7 +12449,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>63</v>
@@ -12482,7 +12459,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>6</v>
@@ -12492,7 +12469,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>6</v>
@@ -12502,27 +12479,27 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C170" s="0"/>
       <c r="D170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C171" s="0"/>
       <c r="D171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>6</v>
@@ -12532,7 +12509,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>6</v>
@@ -12542,7 +12519,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>6</v>
@@ -12552,7 +12529,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>6</v>
@@ -12562,7 +12539,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>6</v>
@@ -12572,17 +12549,17 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C177" s="0"/>
       <c r="D177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>6</v>
@@ -12592,7 +12569,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>6</v>
@@ -12602,7 +12579,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>6</v>
@@ -12612,7 +12589,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>6</v>
@@ -12638,7 +12615,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -12662,7 +12639,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12675,18 +12652,18 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>8.31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>8.31</v>
@@ -12723,78 +12700,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12802,39 +12779,39 @@
         <v>428</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="6" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="6" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="6" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12842,7 +12819,7 @@
         <v>445</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12850,12 +12827,12 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="6" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -12863,7 +12840,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
@@ -12871,7 +12848,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -12891,146 +12868,146 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
